--- a/sampledata.xlsx
+++ b/sampledata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marck\Documents\Code\R_code\data_analysis_folder\map_trying\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marck\Documents\Code\R_code\mapdates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BE1A9E-FAFC-4C6E-AD44-5E8B84E24052}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757973D4-4C89-4C97-9B4F-30CEF4644056}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AC2E1B8D-A8B8-4E51-A95C-DB922322FBF4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="460">
   <si>
     <t>Trinil 2</t>
   </si>
@@ -219,13 +219,1207 @@
   </si>
   <si>
     <t>Dragutin GorjanoviÄ‡-Kramberger</t>
+  </si>
+  <si>
+    <t>Cheddar Man</t>
+  </si>
+  <si>
+    <t>9 (7000 BC)</t>
+  </si>
+  <si>
+    <t>La Chapelle-aux-Saints 1</t>
+  </si>
+  <si>
+    <t>A. and J. Bouyssonie and L. Bardon</t>
+  </si>
+  <si>
+    <t>La Ferrassie 1</t>
+  </si>
+  <si>
+    <t>R. Capitan and D. Peyrony</t>
+  </si>
+  <si>
+    <t>Le Moustier</t>
+  </si>
+  <si>
+    <t>40Â±10</t>
+  </si>
+  <si>
+    <t>Combe Capelle</t>
+  </si>
+  <si>
+    <t>9.6 (7600 BC)[146]</t>
+  </si>
+  <si>
+    <t>La Brea Woman</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Broken Hill 1(Kabwe 1, Rhodesian Man)</t>
+  </si>
+  <si>
+    <t>299Â±25[104]</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Tom Zwiglaar</t>
+  </si>
+  <si>
+    <t>Taung Child 1</t>
+  </si>
+  <si>
+    <t>3.03 - 2.61</t>
+  </si>
+  <si>
+    <t>Australopithecus africanus</t>
+  </si>
+  <si>
+    <t>Buxton-Norlim Limeworks, South Africa</t>
+  </si>
+  <si>
+    <t>Raymond Dart</t>
+  </si>
+  <si>
+    <t>250Â±50</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Francis Turville-Petre</t>
+  </si>
+  <si>
+    <t>Kents Cavern 4 maxilla</t>
+  </si>
+  <si>
+    <t>43.5Â±2.5</t>
+  </si>
+  <si>
+    <t>Saccopastore 1</t>
+  </si>
+  <si>
+    <t>250[83]</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Mario Grazioli</t>
+  </si>
+  <si>
+    <t>Qafzeh 6[105]</t>
+  </si>
+  <si>
+    <t>95Â±5[103]</t>
+  </si>
+  <si>
+    <t>R. Neuville, M. Stekelis</t>
+  </si>
+  <si>
+    <t>Ngandong 7</t>
+  </si>
+  <si>
+    <t>112[84]</t>
+  </si>
+  <si>
+    <t>C. ter Haar and G. H. R. von Koenigswald</t>
+  </si>
+  <si>
+    <t>Florisbad Skull</t>
+  </si>
+  <si>
+    <t>259Â±35</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>T. F. Dreyer, G. Venter</t>
+  </si>
+  <si>
+    <t>Qafzeh 9</t>
+  </si>
+  <si>
+    <t>100â€“90[103]</t>
+  </si>
+  <si>
+    <t>T. McCown and H. Moivus, Jr.</t>
+  </si>
+  <si>
+    <t>Skhul 5</t>
+  </si>
+  <si>
+    <t>100Â±20</t>
+  </si>
+  <si>
+    <t>Mojokerto 1(Mojokerto child)</t>
+  </si>
+  <si>
+    <t>1.43Â±0.10</t>
+  </si>
+  <si>
+    <t>Andojo, G.H.R. von Koenigswald</t>
+  </si>
+  <si>
+    <t>Sangiran 2</t>
+  </si>
+  <si>
+    <t>1.15Â±0.45</t>
+  </si>
+  <si>
+    <t>G.H.R. von Koenigswald</t>
+  </si>
+  <si>
+    <t>TM 1517[31]</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>Paranthropus robustus</t>
+  </si>
+  <si>
+    <t>Gert Terblanche</t>
+  </si>
+  <si>
+    <t>Teshik-Tash Skull[112]</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>A. Okladnikov</t>
+  </si>
+  <si>
+    <t>Sangiran 4</t>
+  </si>
+  <si>
+    <t>Mt. Circeo 1[118]</t>
+  </si>
+  <si>
+    <t>50Â±10</t>
+  </si>
+  <si>
+    <t>Prof. Blanc</t>
+  </si>
+  <si>
+    <t>STS 71[22]</t>
+  </si>
+  <si>
+    <t>2.61 -2.07</t>
+  </si>
+  <si>
+    <t>Sterkfontein, South Africa</t>
+  </si>
+  <si>
+    <t>Robert Broom and John T. Robinson</t>
+  </si>
+  <si>
+    <t>STS 52</t>
+  </si>
+  <si>
+    <t>2.61 - 2.07</t>
+  </si>
+  <si>
+    <t>Robert Broom</t>
+  </si>
+  <si>
+    <t>STS 5 (Mrs. Ples) (STS 14)[24]</t>
+  </si>
+  <si>
+    <t>2.07[25]</t>
+  </si>
+  <si>
+    <t>SK 48</t>
+  </si>
+  <si>
+    <t>2.25 - 1.80</t>
+  </si>
+  <si>
+    <t>Swartkrans, South Africa</t>
+  </si>
+  <si>
+    <t>SK 46[36]</t>
+  </si>
+  <si>
+    <t>SK 847[37]</t>
+  </si>
+  <si>
+    <t>2.25 -1.80</t>
+  </si>
+  <si>
+    <t>Homo habilis</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>C. Arambourg &amp; B. Hoffstetter</t>
+  </si>
+  <si>
+    <t>40â€“37[124]</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>OH 5(Zinj ornutcracker man)</t>
+  </si>
+  <si>
+    <t>Paranthropus boisei</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Mary Leakey</t>
+  </si>
+  <si>
+    <t>OH 8[39]</t>
+  </si>
+  <si>
+    <t>Olduvai, Tanzania</t>
+  </si>
+  <si>
+    <t>OH 7</t>
+  </si>
+  <si>
+    <t>Jonathan Leakey</t>
+  </si>
+  <si>
+    <t>OH 9(Chellean Man)[51]</t>
+  </si>
+  <si>
+    <t>Louis Leakey</t>
+  </si>
+  <si>
+    <t>Petralona 1</t>
+  </si>
+  <si>
+    <t>200Â±40[87]</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Klasies River Caves</t>
+  </si>
+  <si>
+    <t>100Â±25</t>
+  </si>
+  <si>
+    <t>Ray Inskeep, Robin Singer, John Wymer, Hilary Deacon</t>
+  </si>
+  <si>
+    <t>Shanidar 1</t>
+  </si>
+  <si>
+    <t>70Â±10</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Ralph Solecki</t>
+  </si>
+  <si>
+    <t>41[121]</t>
+  </si>
+  <si>
+    <t>Hisashi Suzuki</t>
+  </si>
+  <si>
+    <t>Yamashita-Cho Man</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Peninj Mandible</t>
+  </si>
+  <si>
+    <t>Richard Leakey</t>
+  </si>
+  <si>
+    <t>275Â±25</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>LÃ¡szlÃ³ VÃ©rtes</t>
+  </si>
+  <si>
+    <t>KNM-KP 271</t>
+  </si>
+  <si>
+    <t>4.00[13]</t>
+  </si>
+  <si>
+    <t>Australopithecus anamensis</t>
+  </si>
+  <si>
+    <t>Kanapoi, Kenya</t>
+  </si>
+  <si>
+    <t>Bryan Patterson[9]</t>
+  </si>
+  <si>
+    <t>1.70or 0.60â€“0.50(disputed)[42]</t>
+  </si>
+  <si>
+    <t>Fang Qian</t>
+  </si>
+  <si>
+    <t>Iwo Eleru skull</t>
+  </si>
+  <si>
+    <t>13[137]</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Lothagam mandible (KNM-LT 329)[6]</t>
+  </si>
+  <si>
+    <t>4.60Â±0.40[7]</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Arnold Lewis,[8] Bryan Patterson[9][10][11]</t>
+  </si>
+  <si>
+    <t>Omo remains</t>
+  </si>
+  <si>
+    <t>195Â±5[88]</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Tabun C1[99]</t>
+  </si>
+  <si>
+    <t>Arthur Jelinek</t>
+  </si>
+  <si>
+    <t>Tandou[133][134]</t>
+  </si>
+  <si>
+    <t>Duncan Merrilees</t>
+  </si>
+  <si>
+    <t>OH 24(Twiggy)[38]</t>
+  </si>
+  <si>
+    <t>Peter Nzube</t>
+  </si>
+  <si>
+    <t>Kow Swamp 1</t>
+  </si>
+  <si>
+    <t>13â€“9</t>
+  </si>
+  <si>
+    <t>KNM-ER 406</t>
+  </si>
+  <si>
+    <t>Sangiran 17[59]</t>
+  </si>
+  <si>
+    <t>S. Sartono</t>
+  </si>
+  <si>
+    <t>KNM-ER 732[43]</t>
+  </si>
+  <si>
+    <t>Minatogawa 1</t>
+  </si>
+  <si>
+    <t>17Â±1</t>
+  </si>
+  <si>
+    <t>KNM-ER 992</t>
+  </si>
+  <si>
+    <t>Henry de Lumley</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>A quarry worker</t>
+  </si>
+  <si>
+    <t>KNM-ER 1470</t>
+  </si>
+  <si>
+    <t>Homo rudolfensis</t>
+  </si>
+  <si>
+    <t>Bernard Ngeneo[35]</t>
+  </si>
+  <si>
+    <t>AL 129-1</t>
+  </si>
+  <si>
+    <t>3.10Â±0.10</t>
+  </si>
+  <si>
+    <t>Australopithecus afarensis</t>
+  </si>
+  <si>
+    <t>Afar Region,  Ethiopia</t>
+  </si>
+  <si>
+    <t>Donald Johanson</t>
+  </si>
+  <si>
+    <t>KNM-ER 1813</t>
+  </si>
+  <si>
+    <t>Kamoya Kimeu</t>
+  </si>
+  <si>
+    <t>A.A. Mturi</t>
+  </si>
+  <si>
+    <t>LH 4</t>
+  </si>
+  <si>
+    <t>3.40Â±0.50</t>
+  </si>
+  <si>
+    <t>Laetoli, Tanzania</t>
+  </si>
+  <si>
+    <t>Mary Leakey[14]</t>
+  </si>
+  <si>
+    <t>Tom Gray, Donald Johanson, Yves Coppens and Maurice Taieb</t>
+  </si>
+  <si>
+    <t>Mungo Man</t>
+  </si>
+  <si>
+    <t>AL 200-1</t>
+  </si>
+  <si>
+    <t>Afar Region, Ethiopia</t>
+  </si>
+  <si>
+    <t>Donald Johanson Yves Coppens and Maurice Taieb</t>
+  </si>
+  <si>
+    <t>KNM-ER 3733</t>
+  </si>
+  <si>
+    <t>1.63Â±0.15[48]</t>
+  </si>
+  <si>
+    <t>StW 53</t>
+  </si>
+  <si>
+    <t>1.8 - 1.6[25]</t>
+  </si>
+  <si>
+    <t>A. R. Hughes</t>
+  </si>
+  <si>
+    <t>KNM-ER 3883</t>
+  </si>
+  <si>
+    <t>1.57Â±0.08</t>
+  </si>
+  <si>
+    <t>Bodo[61]</t>
+  </si>
+  <si>
+    <t>A. Asfaw</t>
+  </si>
+  <si>
+    <t>LH 18</t>
+  </si>
+  <si>
+    <t>120Â±30</t>
+  </si>
+  <si>
+    <t>Ngaloba beds at Laetoli, Tanzania</t>
+  </si>
+  <si>
+    <t>Mary Leakey[98]</t>
+  </si>
+  <si>
+    <t>260Â±20[82]</t>
+  </si>
+  <si>
+    <t>Shuntang Liu</t>
+  </si>
+  <si>
+    <t>Apidima 1(LAO 1/S1)</t>
+  </si>
+  <si>
+    <t>210[85]</t>
+  </si>
+  <si>
+    <t>Apidima Cave / Greece</t>
+  </si>
+  <si>
+    <t>Theodore Pitsios[86]</t>
+  </si>
+  <si>
+    <t>Apidima 2(LAO 1/S2)</t>
+  </si>
+  <si>
+    <t>170[85]</t>
+  </si>
+  <si>
+    <t>Red Deer Cave</t>
+  </si>
+  <si>
+    <t>13Â±1.5</t>
+  </si>
+  <si>
+    <t>Darren Curnoe?</t>
+  </si>
+  <si>
+    <t>Hexian cranial vault (PA 830)[76][77]</t>
+  </si>
+  <si>
+    <t>0.412Â±0.025</t>
+  </si>
+  <si>
+    <t>Hexian, China</t>
+  </si>
+  <si>
+    <t>Xiahe mandible</t>
+  </si>
+  <si>
+    <t>160[96]</t>
+  </si>
+  <si>
+    <t>Denisovan</t>
+  </si>
+  <si>
+    <t>Bontnewydd (Pontynewydd)</t>
+  </si>
+  <si>
+    <t>WLH-50</t>
+  </si>
+  <si>
+    <t>29Â±5</t>
+  </si>
+  <si>
+    <t>Kebara 2 (Moshe)[113]</t>
+  </si>
+  <si>
+    <t>Lynne Schepartz</t>
+  </si>
+  <si>
+    <t>KNM-TH 13150</t>
+  </si>
+  <si>
+    <t>4.70Â±0.55[12]</t>
+  </si>
+  <si>
+    <t>Kiptalam Cheboi[9]</t>
+  </si>
+  <si>
+    <t>KNM-WT 15000(Turkana Boy)</t>
+  </si>
+  <si>
+    <t>Lake Turkana (West Lake Turkana), Kenya</t>
+  </si>
+  <si>
+    <t>KNM-WT 17000(The Black Skull)</t>
+  </si>
+  <si>
+    <t>Paranthropus aethiopicus</t>
+  </si>
+  <si>
+    <t>Alan Walker</t>
+  </si>
+  <si>
+    <t>Villabruna 1</t>
+  </si>
+  <si>
+    <t>Koobi Fora, Kenya</t>
+  </si>
+  <si>
+    <t>Benson Kyongo</t>
+  </si>
+  <si>
+    <t>UR 501 (Uraha jawbone)</t>
+  </si>
+  <si>
+    <t>2.40Â±0.10</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Tyson Msiska, Timothy Bromage, Friedemann Schrenk</t>
+  </si>
+  <si>
+    <t>286Â±32[80]</t>
+  </si>
+  <si>
+    <t>Yoel Rak</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>BermÃºdez, Arsuaga &amp; Carbonell</t>
+  </si>
+  <si>
+    <t>Konso-Gardula, Ethiopia</t>
+  </si>
+  <si>
+    <t>A. Amzaye</t>
+  </si>
+  <si>
+    <t>Altamura Man</t>
+  </si>
+  <si>
+    <t>151Â±21[97]</t>
+  </si>
+  <si>
+    <t>Scladina</t>
+  </si>
+  <si>
+    <t>103Â±23[103]</t>
+  </si>
+  <si>
+    <t>Ardi</t>
+  </si>
+  <si>
+    <t>4.40[5]</t>
+  </si>
+  <si>
+    <t>Ardipithecus ramidus</t>
+  </si>
+  <si>
+    <t>Yohannes Haile-Selassie</t>
+  </si>
+  <si>
+    <t>Ronald J. Clarke</t>
+  </si>
+  <si>
+    <t>2.04 - 1.95[26]</t>
+  </si>
+  <si>
+    <t>Drimolen, Drimolen Main Quarry, South Africa</t>
+  </si>
+  <si>
+    <t>R. Smith and AndrÃ© Keyser</t>
+  </si>
+  <si>
+    <t>0.900[56]</t>
+  </si>
+  <si>
+    <t>BermÃºdez &amp; Arsuaga</t>
+  </si>
+  <si>
+    <t>0.50[63]</t>
+  </si>
+  <si>
+    <t>0.450Â±0.050</t>
+  </si>
+  <si>
+    <t>Ceprano, Italy</t>
+  </si>
+  <si>
+    <t>Italo Biddittu</t>
+  </si>
+  <si>
+    <t>SID-00B</t>
+  </si>
+  <si>
+    <t>49.2Â±2.5[119]</t>
+  </si>
+  <si>
+    <t>SidrÃ³n Cave, Spain</t>
+  </si>
+  <si>
+    <t>37.30Â±0.83[119]</t>
+  </si>
+  <si>
+    <t>3,50</t>
+  </si>
+  <si>
+    <t>Australopithecus bahrelghazali</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Mamelbaye Tomalta and Michel Brunet</t>
+  </si>
+  <si>
+    <t>5.65Â±0.150</t>
+  </si>
+  <si>
+    <t>Ardipithecus kadabba</t>
+  </si>
+  <si>
+    <t>EthiopiaSite:Middle Awash</t>
+  </si>
+  <si>
+    <t>Australopithecus garhi</t>
+  </si>
+  <si>
+    <t>Daka</t>
+  </si>
+  <si>
+    <t>Henry Gilbert</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Ernesto Abbate</t>
+  </si>
+  <si>
+    <t>Tim White</t>
+  </si>
+  <si>
+    <t>Eel Point</t>
+  </si>
+  <si>
+    <t>Lapedo Child</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>JoÃ£o ZilhÃ£o</t>
+  </si>
+  <si>
+    <t>Kenyanthropus platyops</t>
+  </si>
+  <si>
+    <t>Justus Erus and Meave Leakey[16]</t>
+  </si>
+  <si>
+    <t>BAR 1000'00</t>
+  </si>
+  <si>
+    <t>6.1 - 5.7[3]</t>
+  </si>
+  <si>
+    <t>Orrorin tugenensis</t>
+  </si>
+  <si>
+    <t>KenyaSite:Lukeino</t>
+  </si>
+  <si>
+    <t>Martin Pickford, Kiptalam Cheboi, Dominique Gommery, Pierre Mein, Brigitte Senut,</t>
+  </si>
+  <si>
+    <t>Zeresenay Alemseged</t>
+  </si>
+  <si>
+    <t>Denisovan tooth</t>
+  </si>
+  <si>
+    <t>7.00-6.00[2]</t>
+  </si>
+  <si>
+    <t>Sahelanthropus tchadensis</t>
+  </si>
+  <si>
+    <t>ChadSite:Djurab Desert</t>
+  </si>
+  <si>
+    <t>Michel Brunet, Alain Beauvilain, Fanone Gongdibe, Mahamat Adoum and Ahounta Djimdoumalbaye</t>
+  </si>
+  <si>
+    <t>1.81Â±0.40[40]</t>
+  </si>
+  <si>
+    <t>Dmanisi, Georgia</t>
+  </si>
+  <si>
+    <t>David Lordkipanidze and Abesalom Vekua</t>
+  </si>
+  <si>
+    <t>Kocabas</t>
+  </si>
+  <si>
+    <t>1.10[53]</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>M. Cihat AlÃ§iÃ§ek</t>
+  </si>
+  <si>
+    <t>Misliya-1</t>
+  </si>
+  <si>
+    <t>187Â±13[90]</t>
+  </si>
+  <si>
+    <t>Israel Hershkovitz</t>
+  </si>
+  <si>
+    <t>Oase 1</t>
+  </si>
+  <si>
+    <t>42â€“37[123]</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>1.81Â±0.40</t>
+  </si>
+  <si>
+    <t>David Lordkipanidze</t>
+  </si>
+  <si>
+    <t>75[103]</t>
+  </si>
+  <si>
+    <t>LB 1 (Hobbit)</t>
+  </si>
+  <si>
+    <t>55Â±5</t>
+  </si>
+  <si>
+    <t>Homo floresiensis</t>
+  </si>
+  <si>
+    <t>Liang Bua, Indonesia</t>
+  </si>
+  <si>
+    <t>Peter Brown</t>
+  </si>
+  <si>
+    <t>Gawis cranium</t>
+  </si>
+  <si>
+    <t>0.350Â±0.015</t>
+  </si>
+  <si>
+    <t>Asahmed Humet</t>
+  </si>
+  <si>
+    <t>1.98[34]</t>
+  </si>
+  <si>
+    <t>Australopithecus sediba</t>
+  </si>
+  <si>
+    <t>Malapa, South Africa</t>
+  </si>
+  <si>
+    <t>Lee R. Berger</t>
+  </si>
+  <si>
+    <t>Homo sp.</t>
+  </si>
+  <si>
+    <t>Eudald Carbonell</t>
+  </si>
+  <si>
+    <t>Manot 1</t>
+  </si>
+  <si>
+    <t>Johannes Krause, et al.</t>
+  </si>
+  <si>
+    <t>54.5Â±8.5[116][117]</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>Denisova 8</t>
+  </si>
+  <si>
+    <t>110[100][101]</t>
+  </si>
+  <si>
+    <t>hominin toe bone</t>
+  </si>
+  <si>
+    <t>1.84Â±0.60</t>
+  </si>
+  <si>
+    <t>Denisova Cave / Siberia / Russia</t>
+  </si>
+  <si>
+    <t>Viviane Slon &amp; Svante PÃ¤Ã¤bo</t>
+  </si>
+  <si>
+    <t>Balangoda man</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>LD 350-1</t>
+  </si>
+  <si>
+    <t>2.775Â±0.025[20]</t>
+  </si>
+  <si>
+    <t>Chalachew Seyoum</t>
+  </si>
+  <si>
+    <t>Dinaledi Chamber hominins</t>
+  </si>
+  <si>
+    <t>0.325Â±0.090[78]</t>
+  </si>
+  <si>
+    <t>Homo naledi</t>
+  </si>
+  <si>
+    <t>Rick Hunter and Steven Tucker</t>
+  </si>
+  <si>
+    <t>Aroeira 3</t>
+  </si>
+  <si>
+    <t>JoÃ£o_ZilhÃ£o</t>
+  </si>
+  <si>
+    <t>BRT-VP-3/14</t>
+  </si>
+  <si>
+    <t>3.40Â±0.10</t>
+  </si>
+  <si>
+    <t>Australopithecus deyiremeda</t>
+  </si>
+  <si>
+    <t>Yohannes Haile-Selassie[17]</t>
+  </si>
+  <si>
+    <t>2.04[26]</t>
+  </si>
+  <si>
+    <t>Drimolen ,Drimolen Main Quarry, South Africa</t>
+  </si>
+  <si>
+    <t>Andy Herries' team (excavated by Richard Curtis, Andy Herries, Angeline Leece; reconstructed by Jesse Martin)</t>
+  </si>
+  <si>
+    <t>2.04-1.95</t>
+  </si>
+  <si>
+    <t>Drimolen Main Quarry, South Africa</t>
+  </si>
+  <si>
+    <t>Andy Herries and Stephanie Bakers team (first found by Samantha Good and excavated by Samantha Good, Angeline Leece, Stephanie Baker and Andy Herries; reconstructed by Jesse Martin)</t>
+  </si>
+  <si>
+    <t>2.04-1.95[26]</t>
+  </si>
+  <si>
+    <t>Andy Herries' and Stephanie Baker's team (first part found by Khethi Nkosi. later parts by Amber Jaeger, Eunice Lalunio; reconstructed by Jesse Martin &amp; Angeline Leece)</t>
+  </si>
+  <si>
+    <t>Uncertain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sale </t>
+  </si>
+  <si>
+    <t>Australopithecus prometheus</t>
+  </si>
+  <si>
+    <t>Galilee skull</t>
+  </si>
+  <si>
+    <t>Hofmeyr</t>
+  </si>
+  <si>
+    <t>Saldanha</t>
+  </si>
+  <si>
+    <t> 0.333333</t>
+  </si>
+  <si>
+    <t>Tighennif</t>
+  </si>
+  <si>
+    <t>Kostenki</t>
+  </si>
+  <si>
+    <t>Amud 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vertesszolos </t>
+  </si>
+  <si>
+    <t>location might be off</t>
+  </si>
+  <si>
+    <t>Yuanmou</t>
+  </si>
+  <si>
+    <t>https://www.jstor.org/stable/40386634?seq=1#metadata_info_tab_contents</t>
+  </si>
+  <si>
+    <t>Arago 21</t>
+  </si>
+  <si>
+    <t>Ndutu</t>
+  </si>
+  <si>
+    <t>check location?</t>
+  </si>
+  <si>
+    <t>AL 288-1</t>
+  </si>
+  <si>
+    <t>Dali</t>
+  </si>
+  <si>
+    <t>, 34.12460122479172</t>
+  </si>
+  <si>
+    <t>location estiamted</t>
+  </si>
+  <si>
+    <t>KNM-ER 23000</t>
+  </si>
+  <si>
+    <t>Jebel Irhoud 1</t>
+  </si>
+  <si>
+    <t>AL 444-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Atapuerca Skull 5</t>
+  </si>
+  <si>
+    <t>KGA 10-525</t>
+  </si>
+  <si>
+    <t>Stw 573</t>
+  </si>
+  <si>
+    <t>DNH 7</t>
+  </si>
+  <si>
+    <t>ATD6-15 and ATD6-69</t>
+  </si>
+  <si>
+    <t>SID-20</t>
+  </si>
+  <si>
+    <t>KT-12/H1</t>
+  </si>
+  <si>
+    <t>ALA-VP 1/20</t>
+  </si>
+  <si>
+    <t>BOU-VP-12/130</t>
+  </si>
+  <si>
+    <t>Madam Buya</t>
+  </si>
+  <si>
+    <t>Herto remains</t>
+  </si>
+  <si>
+    <t>KNM-WT 40000</t>
+  </si>
+  <si>
+    <t>DIK-1</t>
+  </si>
+  <si>
+    <t>TM 266</t>
+  </si>
+  <si>
+    <t>D2700</t>
+  </si>
+  <si>
+    <t>D3444</t>
+  </si>
+  <si>
+    <t>Obi-Rakhmat 1</t>
+  </si>
+  <si>
+    <t>KSD-VP-1/1</t>
+  </si>
+  <si>
+    <t>MH1 (Karabo)</t>
+  </si>
+  <si>
+    <t>Atapuerca Jawbone</t>
+  </si>
+  <si>
+    <t>Denisova hominin</t>
+  </si>
+  <si>
+    <t>Tam Pa Ling Cave</t>
+  </si>
+  <si>
+    <t>KNM-ER 62000â€“62003</t>
+  </si>
+  <si>
+    <t>Denny</t>
+  </si>
+  <si>
+    <t>DNH 134</t>
+  </si>
+  <si>
+    <t>DNH 155</t>
+  </si>
+  <si>
+    <t>DNH 152</t>
+  </si>
+  <si>
+    <t>location estimated</t>
+  </si>
+  <si>
+    <t>Elgite Lokorimudang </t>
+  </si>
+  <si>
+    <t> 24,470 </t>
+  </si>
+  <si>
+    <t>dates checked</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/profile/Mauro_Papini/publication/259012479_Geology_of_the_Homo-Bearing_Pleistocene_Dandiero_Basin_Buia_Region_Eritrean_Danakil_Depression/links/551d62640cf2bb3a536b3d0d/Geology-of-the-Homo-Bearing-Pleistocene-Dandiero-Basin-Buia-Region-Eritrean-Danakil-Depression.pdf</t>
+  </si>
+  <si>
+    <t>CHECK MORE</t>
+  </si>
+  <si>
+    <t>locaton estaimted</t>
+  </si>
+  <si>
+    <t>, 18.500833</t>
+  </si>
+  <si>
+    <t>Ceprano</t>
+  </si>
+  <si>
+    <t>Boxgrove</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,6 +1432,25 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2E2E2E"/>
+      <name val="Georgia"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -257,14 +1470,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -577,20 +1795,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AC2D482-2B74-4B46-8540-AC83844CFC3D}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:L167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="A167" sqref="A167:H167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
     <col min="2" max="2" width="25.44140625" customWidth="1"/>
     <col min="3" max="3" width="32.109375" customWidth="1"/>
     <col min="4" max="4" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -615,20 +1834,20 @@
       <c r="H1" t="s">
         <v>22</v>
       </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
       <c r="K1" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="L1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" t="s">
-        <v>47</v>
-      </c>
-      <c r="N1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -653,11 +1872,11 @@
       <c r="H2">
         <v>111.3578</v>
       </c>
-      <c r="K2" t="s">
+      <c r="I2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -682,11 +1901,11 @@
       <c r="H3" s="1">
         <v>8.800694</v>
       </c>
-      <c r="K3" t="s">
+      <c r="I3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -711,11 +1930,11 @@
       <c r="H4" s="1">
         <v>115.923889</v>
       </c>
-      <c r="K4" t="s">
+      <c r="I4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -740,11 +1959,11 @@
       <c r="H5" s="1">
         <v>9.2761110000000002</v>
       </c>
-      <c r="K5" t="s">
+      <c r="I5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -770,7 +1989,7 @@
         <v>-4.2551860000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -796,7 +2015,7 @@
         <v>5.4088890000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -822,7 +2041,7 @@
         <v>-5.346641</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -848,7 +2067,7 @@
         <v>6.9455559999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -874,7 +2093,7 @@
         <v>1.009722</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -896,14 +2115,14 @@
       <c r="H11" s="1">
         <v>151.9333</v>
       </c>
-      <c r="L11" t="s">
+      <c r="J11" t="s">
         <v>49</v>
       </c>
-      <c r="M11" t="s">
+      <c r="K11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -926,7 +2145,7 @@
         <v>111.9</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -949,7 +2168,7 @@
         <v>0.66610000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -972,7 +2191,7 @@
         <v>17.439722</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -998,8 +2217,3612 @@
         <v>15.863611000000001</v>
       </c>
     </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16">
+        <v>1903</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="1">
+        <v>51.281388999999997</v>
+      </c>
+      <c r="H16" s="1">
+        <v>-2.764167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17">
+        <v>1908</v>
+      </c>
+      <c r="E17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="1">
+        <v>44.983333000000002</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1.7166669999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18">
+        <v>1909</v>
+      </c>
+      <c r="E18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="1">
+        <v>44.951943999999997</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.938056</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19">
+        <v>1909</v>
+      </c>
+      <c r="E19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="1">
+        <v>44.993889000000003</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20">
+        <v>1909</v>
+      </c>
+      <c r="E20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="1">
+        <v>44.752777999999999</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.848611</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21">
+        <v>1914</v>
+      </c>
+      <c r="E21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="1">
+        <v>34.062800000000003</v>
+      </c>
+      <c r="H21" s="1">
+        <v>-118.35599999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" t="s">
+        <v>399</v>
+      </c>
+      <c r="D22">
+        <v>1921</v>
+      </c>
+      <c r="E22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="1">
+        <v>-14.46</v>
+      </c>
+      <c r="H22" s="1">
+        <v>28.425999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23">
+        <v>1924</v>
+      </c>
+      <c r="E23" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" s="1">
+        <v>-27.533332999999999</v>
+      </c>
+      <c r="H23" s="1">
+        <v>24.785556</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>402</v>
+      </c>
+      <c r="B24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" t="s">
+        <v>399</v>
+      </c>
+      <c r="D24">
+        <v>1925</v>
+      </c>
+      <c r="E24" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24" s="1">
+        <v>32.855797000000003</v>
+      </c>
+      <c r="H24" s="1">
+        <v>35.527209999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25">
+        <v>1927</v>
+      </c>
+      <c r="E25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="1">
+        <v>50.468200000000003</v>
+      </c>
+      <c r="H25" s="1">
+        <v>-3.5030000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28">
+        <v>1929</v>
+      </c>
+      <c r="E28" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28" s="1">
+        <v>41.941744999999997</v>
+      </c>
+      <c r="H28" s="1">
+        <v>12.501810000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29">
+        <v>1930</v>
+      </c>
+      <c r="E29" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" t="s">
+        <v>94</v>
+      </c>
+      <c r="G29" s="1">
+        <v>32.688218999999997</v>
+      </c>
+      <c r="H29">
+        <v>35.318241999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>1931</v>
+      </c>
+      <c r="E30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" t="s">
+        <v>97</v>
+      </c>
+      <c r="G30" s="1">
+        <v>-6.95</v>
+      </c>
+      <c r="H30" s="1">
+        <v>111.416667</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" t="s">
+        <v>364</v>
+      </c>
+      <c r="D31">
+        <v>1932</v>
+      </c>
+      <c r="E31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F31" t="s">
+        <v>101</v>
+      </c>
+      <c r="G31" s="1">
+        <v>-28.766667000000002</v>
+      </c>
+      <c r="H31" s="1">
+        <v>26.066666999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32">
+        <v>0.35</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>1933</v>
+      </c>
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="1">
+        <v>48.968333000000001</v>
+      </c>
+      <c r="H32">
+        <v>9.2761110000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33">
+        <v>1933</v>
+      </c>
+      <c r="E33" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" t="s">
+        <v>104</v>
+      </c>
+      <c r="G33" s="1">
+        <v>32.688218999999997</v>
+      </c>
+      <c r="H33">
+        <v>35.318241999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34">
+        <v>1933</v>
+      </c>
+      <c r="E34" t="s">
+        <v>84</v>
+      </c>
+      <c r="F34" t="s">
+        <v>104</v>
+      </c>
+      <c r="G34" s="1">
+        <v>32.688218999999997</v>
+      </c>
+      <c r="H34">
+        <v>35.318241999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>1936</v>
+      </c>
+      <c r="E35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" t="s">
+        <v>109</v>
+      </c>
+      <c r="G35" s="1">
+        <v>-7.4722220000000004</v>
+      </c>
+      <c r="H35">
+        <v>112.433611</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>1937</v>
+      </c>
+      <c r="E36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" t="s">
+        <v>112</v>
+      </c>
+      <c r="G36" s="1">
+        <v>-7.45</v>
+      </c>
+      <c r="H36">
+        <v>110.833333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37">
+        <v>1938</v>
+      </c>
+      <c r="E37" t="s">
+        <v>100</v>
+      </c>
+      <c r="F37" t="s">
+        <v>116</v>
+      </c>
+      <c r="G37" s="1">
+        <v>-25.929167</v>
+      </c>
+      <c r="H37">
+        <v>27.788889000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38">
+        <v>70</v>
+      </c>
+      <c r="C38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38">
+        <v>1938</v>
+      </c>
+      <c r="E38" t="s">
+        <v>118</v>
+      </c>
+      <c r="F38" t="s">
+        <v>119</v>
+      </c>
+      <c r="G38" s="1">
+        <v>37.965833000000003</v>
+      </c>
+      <c r="H38">
+        <v>67.156389000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>1939</v>
+      </c>
+      <c r="E39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" t="s">
+        <v>112</v>
+      </c>
+      <c r="G39" s="1">
+        <v>-7.45</v>
+      </c>
+      <c r="H39">
+        <v>110.833333</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40">
+        <v>1939</v>
+      </c>
+      <c r="E40" t="s">
+        <v>90</v>
+      </c>
+      <c r="F40" t="s">
+        <v>123</v>
+      </c>
+      <c r="G40" s="1">
+        <v>41.2333</v>
+      </c>
+      <c r="H40">
+        <v>13.05</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41">
+        <v>1947</v>
+      </c>
+      <c r="E41" t="s">
+        <v>126</v>
+      </c>
+      <c r="F41" t="s">
+        <v>127</v>
+      </c>
+      <c r="G41" s="1">
+        <v>-26.015699999999999</v>
+      </c>
+      <c r="H41">
+        <v>27.7346</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>128</v>
+      </c>
+      <c r="B42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42">
+        <v>1947</v>
+      </c>
+      <c r="E42" t="s">
+        <v>126</v>
+      </c>
+      <c r="F42" t="s">
+        <v>130</v>
+      </c>
+      <c r="G42" s="1">
+        <v>-26.015699999999999</v>
+      </c>
+      <c r="H42">
+        <v>27.7346</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>131</v>
+      </c>
+      <c r="B43" t="s">
+        <v>132</v>
+      </c>
+      <c r="C43" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43">
+        <v>1947</v>
+      </c>
+      <c r="E43" t="s">
+        <v>126</v>
+      </c>
+      <c r="F43" t="s">
+        <v>130</v>
+      </c>
+      <c r="G43" s="1">
+        <v>-26.015699999999999</v>
+      </c>
+      <c r="H43">
+        <v>27.7346</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>133</v>
+      </c>
+      <c r="B44" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44">
+        <v>1948</v>
+      </c>
+      <c r="E44" t="s">
+        <v>135</v>
+      </c>
+      <c r="F44" t="s">
+        <v>130</v>
+      </c>
+      <c r="G44" s="1">
+        <v>-25.929167</v>
+      </c>
+      <c r="H44">
+        <v>27.788889000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>136</v>
+      </c>
+      <c r="B45" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45">
+        <v>1949</v>
+      </c>
+      <c r="E45" t="s">
+        <v>135</v>
+      </c>
+      <c r="F45" t="s">
+        <v>130</v>
+      </c>
+      <c r="G45" s="1">
+        <v>-25.929167</v>
+      </c>
+      <c r="H45">
+        <v>27.788889000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>137</v>
+      </c>
+      <c r="B46" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" t="s">
+        <v>139</v>
+      </c>
+      <c r="D46">
+        <v>1949</v>
+      </c>
+      <c r="E46" t="s">
+        <v>135</v>
+      </c>
+      <c r="G46" s="1">
+        <v>-25.929167</v>
+      </c>
+      <c r="H46">
+        <v>27.788889000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>403</v>
+      </c>
+      <c r="B47">
+        <v>36</v>
+      </c>
+      <c r="C47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47">
+        <v>1952</v>
+      </c>
+      <c r="E47" t="s">
+        <v>100</v>
+      </c>
+      <c r="G47" s="1">
+        <v>-31.633333</v>
+      </c>
+      <c r="H47">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>404</v>
+      </c>
+      <c r="B48">
+        <v>0.5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>364</v>
+      </c>
+      <c r="D48">
+        <v>1953</v>
+      </c>
+      <c r="E48" t="s">
+        <v>100</v>
+      </c>
+      <c r="G48" s="1">
+        <v>-32.997777999999997</v>
+      </c>
+      <c r="H48">
+        <v>17.945556</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" t="s">
+        <v>406</v>
+      </c>
+      <c r="B49">
+        <v>0.7</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>1954</v>
+      </c>
+      <c r="E49" t="s">
+        <v>140</v>
+      </c>
+      <c r="F49" t="s">
+        <v>141</v>
+      </c>
+      <c r="G49" s="1">
+        <v>35.416666999999997</v>
+      </c>
+      <c r="H49" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" t="s">
+        <v>407</v>
+      </c>
+      <c r="B50" t="s">
+        <v>142</v>
+      </c>
+      <c r="C50" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50">
+        <v>1954</v>
+      </c>
+      <c r="E50" t="s">
+        <v>143</v>
+      </c>
+      <c r="G50" s="1">
+        <v>52.612222000000003</v>
+      </c>
+      <c r="H50">
+        <v>36.868056000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" t="s">
+        <v>144</v>
+      </c>
+      <c r="B52">
+        <v>1.75</v>
+      </c>
+      <c r="C52" t="s">
+        <v>145</v>
+      </c>
+      <c r="D52">
+        <v>1959</v>
+      </c>
+      <c r="E52" t="s">
+        <v>146</v>
+      </c>
+      <c r="F52" t="s">
+        <v>147</v>
+      </c>
+      <c r="G52" s="1">
+        <v>-2.9936129999999999</v>
+      </c>
+      <c r="H52">
+        <v>35.351149999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" t="s">
+        <v>148</v>
+      </c>
+      <c r="B53">
+        <v>1.8</v>
+      </c>
+      <c r="C53" t="s">
+        <v>139</v>
+      </c>
+      <c r="D53">
+        <v>1960</v>
+      </c>
+      <c r="E53" t="s">
+        <v>149</v>
+      </c>
+      <c r="G53" s="1">
+        <v>-2.9936129999999999</v>
+      </c>
+      <c r="H53">
+        <v>35.351149999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" t="s">
+        <v>150</v>
+      </c>
+      <c r="B54">
+        <v>1.75</v>
+      </c>
+      <c r="C54" t="s">
+        <v>139</v>
+      </c>
+      <c r="D54">
+        <v>1960</v>
+      </c>
+      <c r="E54" t="s">
+        <v>146</v>
+      </c>
+      <c r="F54" t="s">
+        <v>151</v>
+      </c>
+      <c r="G54" s="1">
+        <v>-2.9936129999999999</v>
+      </c>
+      <c r="H54">
+        <v>35.351149999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" t="s">
+        <v>152</v>
+      </c>
+      <c r="B55">
+        <v>1.4</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>1960</v>
+      </c>
+      <c r="E55" t="s">
+        <v>149</v>
+      </c>
+      <c r="F55" t="s">
+        <v>153</v>
+      </c>
+      <c r="G55" s="1">
+        <v>-2.9936129999999999</v>
+      </c>
+      <c r="H55">
+        <v>35.351149999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" t="s">
+        <v>154</v>
+      </c>
+      <c r="B56" t="s">
+        <v>155</v>
+      </c>
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56">
+        <v>1960</v>
+      </c>
+      <c r="E56" t="s">
+        <v>156</v>
+      </c>
+      <c r="G56" s="1">
+        <v>37.967222</v>
+      </c>
+      <c r="H56">
+        <v>23.709721999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" t="s">
+        <v>157</v>
+      </c>
+      <c r="B57" t="s">
+        <v>158</v>
+      </c>
+      <c r="C57" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57">
+        <v>1960</v>
+      </c>
+      <c r="E57" t="s">
+        <v>100</v>
+      </c>
+      <c r="F57" t="s">
+        <v>159</v>
+      </c>
+      <c r="G57" s="1">
+        <v>-34.108103</v>
+      </c>
+      <c r="H57">
+        <v>24.390139000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" t="s">
+        <v>160</v>
+      </c>
+      <c r="B58" t="s">
+        <v>161</v>
+      </c>
+      <c r="C58" t="s">
+        <v>32</v>
+      </c>
+      <c r="D58">
+        <v>1961</v>
+      </c>
+      <c r="E58" t="s">
+        <v>162</v>
+      </c>
+      <c r="F58" t="s">
+        <v>163</v>
+      </c>
+      <c r="G58" s="1">
+        <v>36.800600000000003</v>
+      </c>
+      <c r="H58">
+        <v>44.243299999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" t="s">
+        <v>408</v>
+      </c>
+      <c r="B59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C59" t="s">
+        <v>32</v>
+      </c>
+      <c r="D59">
+        <v>1961</v>
+      </c>
+      <c r="E59" t="s">
+        <v>84</v>
+      </c>
+      <c r="F59" t="s">
+        <v>165</v>
+      </c>
+      <c r="G59" s="1">
+        <v>32.880918999999999</v>
+      </c>
+      <c r="H59">
+        <v>35.503264000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" t="s">
+        <v>166</v>
+      </c>
+      <c r="B60">
+        <v>32</v>
+      </c>
+      <c r="C60" t="s">
+        <v>27</v>
+      </c>
+      <c r="D60">
+        <v>1962</v>
+      </c>
+      <c r="E60" t="s">
+        <v>167</v>
+      </c>
+      <c r="G60" s="1">
+        <v>26.200832999999999</v>
+      </c>
+      <c r="H60">
+        <v>127.672839</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" t="s">
+        <v>168</v>
+      </c>
+      <c r="B61">
+        <v>1.5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>145</v>
+      </c>
+      <c r="D61">
+        <v>1964</v>
+      </c>
+      <c r="E61" t="s">
+        <v>146</v>
+      </c>
+      <c r="F61" t="s">
+        <v>169</v>
+      </c>
+      <c r="G61" s="1">
+        <v>-2.4166669999999999</v>
+      </c>
+      <c r="H61">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" t="s">
+        <v>409</v>
+      </c>
+      <c r="B62" t="s">
+        <v>170</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62">
+        <v>1964</v>
+      </c>
+      <c r="E62" t="s">
+        <v>171</v>
+      </c>
+      <c r="F62" t="s">
+        <v>172</v>
+      </c>
+      <c r="G62" s="1">
+        <v>47.627000000000002</v>
+      </c>
+      <c r="H62">
+        <v>18.384</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" t="s">
+        <v>173</v>
+      </c>
+      <c r="B63" t="s">
+        <v>174</v>
+      </c>
+      <c r="C63" t="s">
+        <v>175</v>
+      </c>
+      <c r="D63">
+        <v>1965</v>
+      </c>
+      <c r="E63" t="s">
+        <v>176</v>
+      </c>
+      <c r="F63" t="s">
+        <v>177</v>
+      </c>
+      <c r="G63" s="1">
+        <v>3.5833330000000001</v>
+      </c>
+      <c r="H63">
+        <v>36.116667</v>
+      </c>
+      <c r="L63" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" t="s">
+        <v>411</v>
+      </c>
+      <c r="B64" t="s">
+        <v>178</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>1965</v>
+      </c>
+      <c r="E64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" t="s">
+        <v>179</v>
+      </c>
+      <c r="G64" s="1">
+        <v>25.717777999999999</v>
+      </c>
+      <c r="H64">
+        <v>101.86111099999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" t="s">
+        <v>183</v>
+      </c>
+      <c r="B67" t="s">
+        <v>184</v>
+      </c>
+      <c r="C67" t="s">
+        <v>399</v>
+      </c>
+      <c r="D67">
+        <v>1967</v>
+      </c>
+      <c r="E67" t="s">
+        <v>185</v>
+      </c>
+      <c r="F67" t="s">
+        <v>186</v>
+      </c>
+      <c r="G67">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="H67">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" t="s">
+        <v>187</v>
+      </c>
+      <c r="B68" t="s">
+        <v>188</v>
+      </c>
+      <c r="C68" t="s">
+        <v>27</v>
+      </c>
+      <c r="D68">
+        <v>1967</v>
+      </c>
+      <c r="E68" t="s">
+        <v>189</v>
+      </c>
+      <c r="F68" t="s">
+        <v>169</v>
+      </c>
+      <c r="G68" s="1">
+        <v>4.8003530000000003</v>
+      </c>
+      <c r="H68">
+        <v>35.967069000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" t="s">
+        <v>190</v>
+      </c>
+      <c r="B69">
+        <v>120</v>
+      </c>
+      <c r="C69" t="s">
+        <v>32</v>
+      </c>
+      <c r="D69">
+        <v>1967</v>
+      </c>
+      <c r="E69" t="s">
+        <v>84</v>
+      </c>
+      <c r="F69" t="s">
+        <v>191</v>
+      </c>
+      <c r="G69" s="1">
+        <v>32.670499999999997</v>
+      </c>
+      <c r="H69">
+        <v>34.965499999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" t="s">
+        <v>192</v>
+      </c>
+      <c r="B70">
+        <v>17</v>
+      </c>
+      <c r="C70" t="s">
+        <v>27</v>
+      </c>
+      <c r="D70">
+        <v>1967</v>
+      </c>
+      <c r="E70" t="s">
+        <v>42</v>
+      </c>
+      <c r="F70" t="s">
+        <v>193</v>
+      </c>
+      <c r="G70" s="1">
+        <v>-32.349722</v>
+      </c>
+      <c r="H70">
+        <v>142.368889</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" t="s">
+        <v>194</v>
+      </c>
+      <c r="B71">
+        <v>1.8</v>
+      </c>
+      <c r="C71" t="s">
+        <v>139</v>
+      </c>
+      <c r="D71">
+        <v>1968</v>
+      </c>
+      <c r="E71" t="s">
+        <v>146</v>
+      </c>
+      <c r="F71" t="s">
+        <v>195</v>
+      </c>
+      <c r="G71" s="1">
+        <v>-2.9936129999999999</v>
+      </c>
+      <c r="H71">
+        <v>35.351149999999997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" t="s">
+        <v>196</v>
+      </c>
+      <c r="B72" t="s">
+        <v>197</v>
+      </c>
+      <c r="C72" t="s">
+        <v>27</v>
+      </c>
+      <c r="D72">
+        <v>1968</v>
+      </c>
+      <c r="E72" t="s">
+        <v>42</v>
+      </c>
+      <c r="G72" s="1">
+        <v>-35.953552999999999</v>
+      </c>
+      <c r="H72">
+        <v>144.31812300000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" t="s">
+        <v>198</v>
+      </c>
+      <c r="B73">
+        <v>1.7</v>
+      </c>
+      <c r="C73" t="s">
+        <v>145</v>
+      </c>
+      <c r="D73">
+        <v>1969</v>
+      </c>
+      <c r="E73" t="s">
+        <v>185</v>
+      </c>
+      <c r="F73" t="s">
+        <v>169</v>
+      </c>
+      <c r="G73" s="1">
+        <v>3.947778</v>
+      </c>
+      <c r="H73">
+        <v>36.187221999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" t="s">
+        <v>199</v>
+      </c>
+      <c r="B74">
+        <v>0.7</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>1969</v>
+      </c>
+      <c r="E74" t="s">
+        <v>3</v>
+      </c>
+      <c r="F74" t="s">
+        <v>200</v>
+      </c>
+      <c r="G74" s="1">
+        <v>-7.45</v>
+      </c>
+      <c r="H74">
+        <v>110.833333</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" t="s">
+        <v>201</v>
+      </c>
+      <c r="B75">
+        <v>1.7</v>
+      </c>
+      <c r="C75" t="s">
+        <v>145</v>
+      </c>
+      <c r="D75">
+        <v>1970</v>
+      </c>
+      <c r="E75" t="s">
+        <v>185</v>
+      </c>
+      <c r="F75" t="s">
+        <v>169</v>
+      </c>
+      <c r="G75" s="1">
+        <v>-35.953552999999999</v>
+      </c>
+      <c r="H75">
+        <v>144.31812300000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" t="s">
+        <v>202</v>
+      </c>
+      <c r="B76" t="s">
+        <v>203</v>
+      </c>
+      <c r="C76" t="s">
+        <v>27</v>
+      </c>
+      <c r="D76">
+        <v>1970</v>
+      </c>
+      <c r="E76" t="s">
+        <v>167</v>
+      </c>
+      <c r="G76" s="1">
+        <v>26.212222000000001</v>
+      </c>
+      <c r="H76">
+        <v>127.67916700000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" t="s">
+        <v>204</v>
+      </c>
+      <c r="B77">
+        <v>1.5</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77">
+        <v>1971</v>
+      </c>
+      <c r="E77" t="s">
+        <v>185</v>
+      </c>
+      <c r="F77" t="s">
+        <v>169</v>
+      </c>
+      <c r="G77" s="1">
+        <v>-35.953552999999999</v>
+      </c>
+      <c r="H77">
+        <v>144.31812300000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" t="s">
+        <v>413</v>
+      </c>
+      <c r="B78">
+        <v>0.45</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78">
+        <v>1971</v>
+      </c>
+      <c r="E78" t="s">
+        <v>39</v>
+      </c>
+      <c r="F78" t="s">
+        <v>205</v>
+      </c>
+      <c r="G78" s="1">
+        <v>42.839444</v>
+      </c>
+      <c r="H78">
+        <v>2.7549999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" t="s">
+        <v>400</v>
+      </c>
+      <c r="B79">
+        <v>0.4</v>
+      </c>
+      <c r="C79" t="s">
+        <v>399</v>
+      </c>
+      <c r="D79">
+        <v>1971</v>
+      </c>
+      <c r="E79" t="s">
+        <v>206</v>
+      </c>
+      <c r="F79" t="s">
+        <v>207</v>
+      </c>
+      <c r="G79" s="1">
+        <v>34.033332999999999</v>
+      </c>
+      <c r="H79">
+        <v>-6.8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" t="s">
+        <v>208</v>
+      </c>
+      <c r="B80">
+        <v>1.9</v>
+      </c>
+      <c r="C80" t="s">
+        <v>209</v>
+      </c>
+      <c r="D80">
+        <v>1972</v>
+      </c>
+      <c r="E80" t="s">
+        <v>185</v>
+      </c>
+      <c r="F80" t="s">
+        <v>210</v>
+      </c>
+      <c r="G80">
+        <v>-35.953552999999999</v>
+      </c>
+      <c r="H80">
+        <v>144.31812300000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" t="s">
+        <v>211</v>
+      </c>
+      <c r="B81" t="s">
+        <v>212</v>
+      </c>
+      <c r="C81" t="s">
+        <v>213</v>
+      </c>
+      <c r="D81">
+        <v>1973</v>
+      </c>
+      <c r="E81" t="s">
+        <v>214</v>
+      </c>
+      <c r="F81" t="s">
+        <v>215</v>
+      </c>
+      <c r="G81" s="1">
+        <v>11.12</v>
+      </c>
+      <c r="H81">
+        <v>40.58</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" t="s">
+        <v>216</v>
+      </c>
+      <c r="B82">
+        <v>1.9</v>
+      </c>
+      <c r="C82" t="s">
+        <v>139</v>
+      </c>
+      <c r="D82">
+        <v>1973</v>
+      </c>
+      <c r="E82" t="s">
+        <v>185</v>
+      </c>
+      <c r="F82" t="s">
+        <v>217</v>
+      </c>
+      <c r="G82" s="1">
+        <v>-35.953552999999999</v>
+      </c>
+      <c r="H82">
+        <v>144.31812300000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" t="s">
+        <v>414</v>
+      </c>
+      <c r="B83">
+        <v>0.4</v>
+      </c>
+      <c r="C83" t="s">
+        <v>399</v>
+      </c>
+      <c r="D83">
+        <v>1973</v>
+      </c>
+      <c r="E83" t="s">
+        <v>146</v>
+      </c>
+      <c r="F83" t="s">
+        <v>218</v>
+      </c>
+      <c r="G83" s="1">
+        <v>-3.3666670000000001</v>
+      </c>
+      <c r="H83">
+        <v>36.683332999999998</v>
+      </c>
+      <c r="L83" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" t="s">
+        <v>219</v>
+      </c>
+      <c r="B84" t="s">
+        <v>220</v>
+      </c>
+      <c r="C84" t="s">
+        <v>213</v>
+      </c>
+      <c r="D84">
+        <v>1974</v>
+      </c>
+      <c r="E84" t="s">
+        <v>221</v>
+      </c>
+      <c r="F84" t="s">
+        <v>222</v>
+      </c>
+      <c r="G84" s="1">
+        <v>-2.996111</v>
+      </c>
+      <c r="H84">
+        <v>35.352499999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" t="s">
+        <v>416</v>
+      </c>
+      <c r="B85">
+        <v>3.2</v>
+      </c>
+      <c r="C85" t="s">
+        <v>213</v>
+      </c>
+      <c r="D85">
+        <v>1974</v>
+      </c>
+      <c r="E85" t="s">
+        <v>189</v>
+      </c>
+      <c r="F85" t="s">
+        <v>223</v>
+      </c>
+      <c r="G85" s="1">
+        <v>11.166665894930301</v>
+      </c>
+      <c r="H85">
+        <v>40.633318168311298</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" t="s">
+        <v>224</v>
+      </c>
+      <c r="B86" t="s">
+        <v>122</v>
+      </c>
+      <c r="C86" t="s">
+        <v>27</v>
+      </c>
+      <c r="D86">
+        <v>1974</v>
+      </c>
+      <c r="E86" t="s">
+        <v>42</v>
+      </c>
+      <c r="G86" s="1">
+        <v>-33.75</v>
+      </c>
+      <c r="H86">
+        <v>143.08333300000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" t="s">
+        <v>225</v>
+      </c>
+      <c r="B87" t="s">
+        <v>212</v>
+      </c>
+      <c r="C87" t="s">
+        <v>213</v>
+      </c>
+      <c r="D87">
+        <v>1975</v>
+      </c>
+      <c r="E87" t="s">
+        <v>226</v>
+      </c>
+      <c r="F87" t="s">
+        <v>227</v>
+      </c>
+      <c r="G87" s="1">
+        <v>11.12</v>
+      </c>
+      <c r="H87">
+        <v>40.58</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" t="s">
+        <v>228</v>
+      </c>
+      <c r="B88" t="s">
+        <v>229</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88">
+        <v>1975</v>
+      </c>
+      <c r="E88" t="s">
+        <v>185</v>
+      </c>
+      <c r="G88" s="1">
+        <v>-35.953552999999999</v>
+      </c>
+      <c r="H88">
+        <v>144.31812300000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" t="s">
+        <v>230</v>
+      </c>
+      <c r="B89" t="s">
+        <v>231</v>
+      </c>
+      <c r="C89" t="s">
+        <v>399</v>
+      </c>
+      <c r="D89">
+        <v>1976</v>
+      </c>
+      <c r="E89" t="s">
+        <v>126</v>
+      </c>
+      <c r="F89" t="s">
+        <v>232</v>
+      </c>
+      <c r="G89" s="1">
+        <v>-26.015699999999999</v>
+      </c>
+      <c r="H89">
+        <v>27.7346</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" t="s">
+        <v>233</v>
+      </c>
+      <c r="B90" t="s">
+        <v>234</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90">
+        <v>1976</v>
+      </c>
+      <c r="E90" t="s">
+        <v>185</v>
+      </c>
+      <c r="F90" t="s">
+        <v>169</v>
+      </c>
+      <c r="G90" s="1">
+        <v>-35.953552999999999</v>
+      </c>
+      <c r="H90">
+        <v>144.31812300000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" t="s">
+        <v>235</v>
+      </c>
+      <c r="B91">
+        <v>0.6</v>
+      </c>
+      <c r="C91" t="s">
+        <v>399</v>
+      </c>
+      <c r="D91">
+        <v>1976</v>
+      </c>
+      <c r="E91" t="s">
+        <v>189</v>
+      </c>
+      <c r="F91" t="s">
+        <v>236</v>
+      </c>
+      <c r="G91" s="1">
+        <v>10.283333000000001</v>
+      </c>
+      <c r="H91">
+        <v>40.5</v>
+      </c>
+      <c r="L91" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" t="s">
+        <v>237</v>
+      </c>
+      <c r="B92" t="s">
+        <v>238</v>
+      </c>
+      <c r="C92" t="s">
+        <v>27</v>
+      </c>
+      <c r="D92">
+        <v>1976</v>
+      </c>
+      <c r="E92" t="s">
+        <v>239</v>
+      </c>
+      <c r="F92" t="s">
+        <v>240</v>
+      </c>
+      <c r="G92" s="1">
+        <v>-2.996111</v>
+      </c>
+      <c r="H92">
+        <v>35.352499999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93" t="s">
+        <v>417</v>
+      </c>
+      <c r="B93" t="s">
+        <v>241</v>
+      </c>
+      <c r="C93" t="s">
+        <v>399</v>
+      </c>
+      <c r="D93">
+        <v>1978</v>
+      </c>
+      <c r="E93" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" t="s">
+        <v>242</v>
+      </c>
+      <c r="G93" s="1">
+        <v>34.866667</v>
+      </c>
+      <c r="H93">
+        <v>109.733333</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94" t="s">
+        <v>243</v>
+      </c>
+      <c r="B94" t="s">
+        <v>244</v>
+      </c>
+      <c r="C94" t="s">
+        <v>27</v>
+      </c>
+      <c r="D94">
+        <v>1978</v>
+      </c>
+      <c r="E94" t="s">
+        <v>245</v>
+      </c>
+      <c r="F94" t="s">
+        <v>246</v>
+      </c>
+      <c r="G94" s="1">
+        <v>36.661389</v>
+      </c>
+      <c r="H94">
+        <v>22.363333000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" t="s">
+        <v>247</v>
+      </c>
+      <c r="B95" t="s">
+        <v>248</v>
+      </c>
+      <c r="C95" t="s">
+        <v>32</v>
+      </c>
+      <c r="D95">
+        <v>1978</v>
+      </c>
+      <c r="E95" t="s">
+        <v>245</v>
+      </c>
+      <c r="F95" t="s">
+        <v>246</v>
+      </c>
+      <c r="G95" s="1">
+        <v>36.661389</v>
+      </c>
+      <c r="H95">
+        <v>22.363333000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96" t="s">
+        <v>249</v>
+      </c>
+      <c r="B96" t="s">
+        <v>250</v>
+      </c>
+      <c r="C96" t="s">
+        <v>399</v>
+      </c>
+      <c r="D96">
+        <v>1979</v>
+      </c>
+      <c r="E96" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" t="s">
+        <v>251</v>
+      </c>
+      <c r="G96">
+        <v>34.619700000000002</v>
+      </c>
+      <c r="H96">
+        <v>112.4539</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97" t="s">
+        <v>252</v>
+      </c>
+      <c r="B97" t="s">
+        <v>253</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97">
+        <v>1980</v>
+      </c>
+      <c r="E97" t="s">
+        <v>254</v>
+      </c>
+      <c r="G97" s="1">
+        <v>31.74</v>
+      </c>
+      <c r="H97">
+        <v>118.35</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="A98" t="s">
+        <v>255</v>
+      </c>
+      <c r="B98" t="s">
+        <v>256</v>
+      </c>
+      <c r="C98" t="s">
+        <v>399</v>
+      </c>
+      <c r="D98">
+        <v>1980</v>
+      </c>
+      <c r="E98" t="s">
+        <v>11</v>
+      </c>
+      <c r="G98" s="1">
+        <v>35.448056000000001</v>
+      </c>
+      <c r="H98">
+        <v>102.571389</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99" t="s">
+        <v>258</v>
+      </c>
+      <c r="B99">
+        <v>230</v>
+      </c>
+      <c r="C99" t="s">
+        <v>32</v>
+      </c>
+      <c r="D99">
+        <v>1981</v>
+      </c>
+      <c r="E99" t="s">
+        <v>28</v>
+      </c>
+      <c r="G99">
+        <v>53.226944000000003</v>
+      </c>
+      <c r="H99">
+        <v>-3.476111</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100" t="s">
+        <v>259</v>
+      </c>
+      <c r="B100" t="s">
+        <v>260</v>
+      </c>
+      <c r="C100" t="s">
+        <v>27</v>
+      </c>
+      <c r="D100">
+        <v>1982</v>
+      </c>
+      <c r="E100" t="s">
+        <v>42</v>
+      </c>
+      <c r="G100" s="1">
+        <v>-34</v>
+      </c>
+      <c r="H100">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101" t="s">
+        <v>261</v>
+      </c>
+      <c r="B101">
+        <v>60</v>
+      </c>
+      <c r="C101" t="s">
+        <v>32</v>
+      </c>
+      <c r="D101">
+        <v>1983</v>
+      </c>
+      <c r="E101" t="s">
+        <v>84</v>
+      </c>
+      <c r="F101" t="s">
+        <v>262</v>
+      </c>
+      <c r="G101" s="1">
+        <v>32.558278000000001</v>
+      </c>
+      <c r="H101">
+        <v>34.937306</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="A102" t="s">
+        <v>263</v>
+      </c>
+      <c r="B102" t="s">
+        <v>264</v>
+      </c>
+      <c r="C102" t="s">
+        <v>175</v>
+      </c>
+      <c r="D102">
+        <v>1984</v>
+      </c>
+      <c r="E102" t="s">
+        <v>185</v>
+      </c>
+      <c r="F102" t="s">
+        <v>265</v>
+      </c>
+      <c r="G102" s="1">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="H102">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
+      <c r="A103" t="s">
+        <v>266</v>
+      </c>
+      <c r="B103">
+        <v>1.6</v>
+      </c>
+      <c r="C103" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103">
+        <v>1984</v>
+      </c>
+      <c r="E103" t="s">
+        <v>267</v>
+      </c>
+      <c r="F103" t="s">
+        <v>217</v>
+      </c>
+      <c r="G103">
+        <v>4.2808060000000001</v>
+      </c>
+      <c r="H103">
+        <v>35.897309999999997</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
+      <c r="A104" t="s">
+        <v>268</v>
+      </c>
+      <c r="B104">
+        <v>2.5</v>
+      </c>
+      <c r="C104" t="s">
+        <v>269</v>
+      </c>
+      <c r="D104">
+        <v>1985</v>
+      </c>
+      <c r="E104" t="s">
+        <v>185</v>
+      </c>
+      <c r="F104" t="s">
+        <v>270</v>
+      </c>
+      <c r="G104">
+        <v>4.2808060000000001</v>
+      </c>
+      <c r="H104">
+        <v>35.897309999999997</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
+      <c r="A105" t="s">
+        <v>271</v>
+      </c>
+      <c r="B105">
+        <v>14</v>
+      </c>
+      <c r="C105" t="s">
+        <v>27</v>
+      </c>
+      <c r="D105">
+        <v>1988</v>
+      </c>
+      <c r="E105" t="s">
+        <v>90</v>
+      </c>
+      <c r="G105" s="1">
+        <v>46.084277999999998</v>
+      </c>
+      <c r="H105">
+        <v>11.764333000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
+      <c r="G106" s="1"/>
+    </row>
+    <row r="107" spans="1:12">
+      <c r="A107" t="s">
+        <v>420</v>
+      </c>
+      <c r="B107">
+        <v>1.7</v>
+      </c>
+      <c r="C107" t="s">
+        <v>145</v>
+      </c>
+      <c r="D107">
+        <v>1990</v>
+      </c>
+      <c r="E107" t="s">
+        <v>272</v>
+      </c>
+      <c r="F107" t="s">
+        <v>273</v>
+      </c>
+      <c r="G107">
+        <v>-35.953552999999999</v>
+      </c>
+      <c r="H107">
+        <v>144.31812300000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
+      <c r="A108" t="s">
+        <v>274</v>
+      </c>
+      <c r="B108" t="s">
+        <v>275</v>
+      </c>
+      <c r="C108" t="s">
+        <v>209</v>
+      </c>
+      <c r="D108">
+        <v>1991</v>
+      </c>
+      <c r="E108" t="s">
+        <v>276</v>
+      </c>
+      <c r="F108" t="s">
+        <v>277</v>
+      </c>
+      <c r="G108" s="1">
+        <v>-10.774119775883801</v>
+      </c>
+      <c r="H108" t="s">
+        <v>418</v>
+      </c>
+      <c r="L108" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="A109" t="s">
+        <v>421</v>
+      </c>
+      <c r="B109" t="s">
+        <v>278</v>
+      </c>
+      <c r="C109" t="s">
+        <v>27</v>
+      </c>
+      <c r="D109">
+        <v>1991</v>
+      </c>
+      <c r="E109" t="s">
+        <v>206</v>
+      </c>
+      <c r="G109" s="1">
+        <v>31.855</v>
+      </c>
+      <c r="H109">
+        <v>-8.8725000000000005</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
+      <c r="A110" t="s">
+        <v>422</v>
+      </c>
+      <c r="B110">
+        <v>3</v>
+      </c>
+      <c r="C110" t="s">
+        <v>213</v>
+      </c>
+      <c r="D110">
+        <v>1992</v>
+      </c>
+      <c r="E110" t="s">
+        <v>214</v>
+      </c>
+      <c r="F110" t="s">
+        <v>279</v>
+      </c>
+      <c r="G110" s="1">
+        <v>11.12</v>
+      </c>
+      <c r="H110">
+        <v>40.58</v>
+      </c>
+      <c r="L110" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
+      <c r="A111" t="s">
+        <v>423</v>
+      </c>
+      <c r="B111">
+        <v>0.4</v>
+      </c>
+      <c r="C111" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111">
+        <v>1992</v>
+      </c>
+      <c r="E111" t="s">
+        <v>280</v>
+      </c>
+      <c r="F111" t="s">
+        <v>281</v>
+      </c>
+      <c r="G111" s="1">
+        <v>42.366667</v>
+      </c>
+      <c r="H111">
+        <v>-3.5222220000000002</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
+      <c r="A112" t="s">
+        <v>424</v>
+      </c>
+      <c r="B112">
+        <v>1.4</v>
+      </c>
+      <c r="C112" t="s">
+        <v>145</v>
+      </c>
+      <c r="D112">
+        <v>1993</v>
+      </c>
+      <c r="E112" t="s">
+        <v>282</v>
+      </c>
+      <c r="F112" t="s">
+        <v>283</v>
+      </c>
+      <c r="G112" s="1">
+        <v>5.25</v>
+      </c>
+      <c r="H112">
+        <v>37.483333000000002</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
+      <c r="A113" t="s">
+        <v>284</v>
+      </c>
+      <c r="B113" t="s">
+        <v>285</v>
+      </c>
+      <c r="C113" t="s">
+        <v>32</v>
+      </c>
+      <c r="D113">
+        <v>1993</v>
+      </c>
+      <c r="E113" t="s">
+        <v>90</v>
+      </c>
+      <c r="G113" s="1">
+        <v>40.817</v>
+      </c>
+      <c r="H113">
+        <v>16.55</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
+      <c r="A114" t="s">
+        <v>286</v>
+      </c>
+      <c r="B114" t="s">
+        <v>287</v>
+      </c>
+      <c r="C114" t="s">
+        <v>32</v>
+      </c>
+      <c r="D114">
+        <v>1993</v>
+      </c>
+      <c r="E114" t="s">
+        <v>33</v>
+      </c>
+      <c r="G114" s="1">
+        <v>50.483888999999998</v>
+      </c>
+      <c r="H114">
+        <v>5.0255559999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
+      <c r="A115" t="s">
+        <v>288</v>
+      </c>
+      <c r="B115" t="s">
+        <v>289</v>
+      </c>
+      <c r="C115" t="s">
+        <v>290</v>
+      </c>
+      <c r="D115">
+        <v>1994</v>
+      </c>
+      <c r="E115" t="s">
+        <v>189</v>
+      </c>
+      <c r="F115" t="s">
+        <v>291</v>
+      </c>
+      <c r="G115" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="H115">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
+      <c r="A116" t="s">
+        <v>425</v>
+      </c>
+      <c r="B116">
+        <v>3.67</v>
+      </c>
+      <c r="C116" t="s">
+        <v>401</v>
+      </c>
+      <c r="D116">
+        <v>1994</v>
+      </c>
+      <c r="E116" t="s">
+        <v>126</v>
+      </c>
+      <c r="F116" t="s">
+        <v>292</v>
+      </c>
+      <c r="G116" s="1">
+        <v>-26.015699999999999</v>
+      </c>
+      <c r="H116">
+        <v>27.7346</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
+      <c r="A117" t="s">
+        <v>426</v>
+      </c>
+      <c r="B117" t="s">
+        <v>293</v>
+      </c>
+      <c r="C117" t="s">
+        <v>115</v>
+      </c>
+      <c r="D117">
+        <v>1994</v>
+      </c>
+      <c r="E117" t="s">
+        <v>294</v>
+      </c>
+      <c r="F117" t="s">
+        <v>295</v>
+      </c>
+      <c r="G117">
+        <v>-25.777550126696699</v>
+      </c>
+      <c r="H117">
+        <v>28.130114904829501</v>
+      </c>
+      <c r="L117" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
+      <c r="A118" t="s">
+        <v>427</v>
+      </c>
+      <c r="B118" t="s">
+        <v>296</v>
+      </c>
+      <c r="C118" t="s">
+        <v>399</v>
+      </c>
+      <c r="D118">
+        <v>1994</v>
+      </c>
+      <c r="E118" t="s">
+        <v>280</v>
+      </c>
+      <c r="F118" t="s">
+        <v>297</v>
+      </c>
+      <c r="G118" s="1">
+        <v>42.366667</v>
+      </c>
+      <c r="H118">
+        <v>-3.5222220000000002</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
+      <c r="A119" t="s">
+        <v>459</v>
+      </c>
+      <c r="B119" t="s">
+        <v>298</v>
+      </c>
+      <c r="C119" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119">
+        <v>1994</v>
+      </c>
+      <c r="E119" t="s">
+        <v>28</v>
+      </c>
+      <c r="G119" s="1">
+        <v>50.859279999999998</v>
+      </c>
+      <c r="H119">
+        <v>-0.71265999999999996</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
+      <c r="A120" t="s">
+        <v>458</v>
+      </c>
+      <c r="B120" t="s">
+        <v>299</v>
+      </c>
+      <c r="C120" t="s">
+        <v>399</v>
+      </c>
+      <c r="D120">
+        <v>1994</v>
+      </c>
+      <c r="E120" t="s">
+        <v>300</v>
+      </c>
+      <c r="F120" t="s">
+        <v>301</v>
+      </c>
+      <c r="G120">
+        <v>41.633333</v>
+      </c>
+      <c r="H120">
+        <v>13.35</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
+      <c r="A121" t="s">
+        <v>302</v>
+      </c>
+      <c r="B121" t="s">
+        <v>303</v>
+      </c>
+      <c r="C121" t="s">
+        <v>32</v>
+      </c>
+      <c r="D121">
+        <v>1994</v>
+      </c>
+      <c r="E121" t="s">
+        <v>304</v>
+      </c>
+      <c r="G121" s="1">
+        <v>43.386111</v>
+      </c>
+      <c r="H121">
+        <v>-5.3283329999999998</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
+      <c r="A122" t="s">
+        <v>428</v>
+      </c>
+      <c r="B122" t="s">
+        <v>305</v>
+      </c>
+      <c r="C122" t="s">
+        <v>32</v>
+      </c>
+      <c r="D122">
+        <v>1994</v>
+      </c>
+      <c r="E122" t="s">
+        <v>304</v>
+      </c>
+      <c r="G122" s="1">
+        <v>43.386111</v>
+      </c>
+      <c r="H122">
+        <v>-5.3283329999999998</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
+      <c r="A123" t="s">
+        <v>429</v>
+      </c>
+      <c r="B123" t="s">
+        <v>306</v>
+      </c>
+      <c r="C123" t="s">
+        <v>307</v>
+      </c>
+      <c r="D123">
+        <v>1995</v>
+      </c>
+      <c r="E123" t="s">
+        <v>308</v>
+      </c>
+      <c r="F123" t="s">
+        <v>309</v>
+      </c>
+      <c r="G123" s="1">
+        <v>16.065000000000001</v>
+      </c>
+      <c r="H123" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
+      <c r="A124" t="s">
+        <v>430</v>
+      </c>
+      <c r="B124" t="s">
+        <v>310</v>
+      </c>
+      <c r="C124" t="s">
+        <v>311</v>
+      </c>
+      <c r="D124">
+        <v>1997</v>
+      </c>
+      <c r="E124" t="s">
+        <v>312</v>
+      </c>
+      <c r="F124" t="s">
+        <v>291</v>
+      </c>
+      <c r="G124" s="1">
+        <v>10.3</v>
+      </c>
+      <c r="H124">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="L124" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
+      <c r="A125" t="s">
+        <v>431</v>
+      </c>
+      <c r="B125">
+        <v>2.5</v>
+      </c>
+      <c r="C125" t="s">
+        <v>313</v>
+      </c>
+      <c r="D125">
+        <v>1997</v>
+      </c>
+      <c r="E125" t="s">
+        <v>189</v>
+      </c>
+      <c r="F125" t="s">
+        <v>291</v>
+      </c>
+      <c r="G125">
+        <v>11.97194</v>
+      </c>
+      <c r="H125">
+        <v>2.8986100000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
+      <c r="A126" t="s">
+        <v>314</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126" t="s">
+        <v>2</v>
+      </c>
+      <c r="D126">
+        <v>1997</v>
+      </c>
+      <c r="E126" t="s">
+        <v>189</v>
+      </c>
+      <c r="F126" t="s">
+        <v>315</v>
+      </c>
+      <c r="G126" s="1">
+        <v>10.3</v>
+      </c>
+      <c r="H126">
+        <v>40.6</v>
+      </c>
+      <c r="L126" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
+      <c r="A127" t="s">
+        <v>433</v>
+      </c>
+      <c r="B127">
+        <v>160</v>
+      </c>
+      <c r="C127" t="s">
+        <v>27</v>
+      </c>
+      <c r="D127">
+        <v>1997</v>
+      </c>
+      <c r="E127" t="s">
+        <v>189</v>
+      </c>
+      <c r="F127" t="s">
+        <v>318</v>
+      </c>
+      <c r="G127">
+        <v>11.1</v>
+      </c>
+      <c r="H127">
+        <v>40.579444000000002</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
+      <c r="A128" t="s">
+        <v>319</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="C128" t="s">
+        <v>27</v>
+      </c>
+      <c r="D128">
+        <v>1997</v>
+      </c>
+      <c r="G128">
+        <v>51.64</v>
+      </c>
+      <c r="H128">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="K128" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
+      <c r="A129" t="s">
+        <v>320</v>
+      </c>
+      <c r="B129">
+        <v>24.5</v>
+      </c>
+      <c r="C129" t="s">
+        <v>399</v>
+      </c>
+      <c r="D129">
+        <v>1998</v>
+      </c>
+      <c r="E129" t="s">
+        <v>321</v>
+      </c>
+      <c r="F129" t="s">
+        <v>322</v>
+      </c>
+      <c r="G129" s="1">
+        <v>39.755392000000001</v>
+      </c>
+      <c r="H129">
+        <v>-8.7352559999999997</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
+      <c r="A130" t="s">
+        <v>434</v>
+      </c>
+      <c r="B130" t="s">
+        <v>306</v>
+      </c>
+      <c r="C130" t="s">
+        <v>323</v>
+      </c>
+      <c r="D130">
+        <v>1999</v>
+      </c>
+      <c r="E130" t="s">
+        <v>267</v>
+      </c>
+      <c r="F130" t="s">
+        <v>324</v>
+      </c>
+      <c r="G130">
+        <v>3.5833330000000001</v>
+      </c>
+      <c r="H130">
+        <v>36.116667</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
+      <c r="A131" t="s">
+        <v>325</v>
+      </c>
+      <c r="B131" t="s">
+        <v>326</v>
+      </c>
+      <c r="C131" t="s">
+        <v>327</v>
+      </c>
+      <c r="D131">
+        <v>2000</v>
+      </c>
+      <c r="E131" t="s">
+        <v>328</v>
+      </c>
+      <c r="F131" t="s">
+        <v>329</v>
+      </c>
+      <c r="G131">
+        <v>0.75290000000000001</v>
+      </c>
+      <c r="H131">
+        <v>35.874899999999997</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
+      <c r="A132" t="s">
+        <v>435</v>
+      </c>
+      <c r="B132">
+        <v>3.3</v>
+      </c>
+      <c r="C132" t="s">
+        <v>213</v>
+      </c>
+      <c r="D132">
+        <v>2000</v>
+      </c>
+      <c r="E132" t="s">
+        <v>189</v>
+      </c>
+      <c r="F132" t="s">
+        <v>330</v>
+      </c>
+      <c r="G132" s="1">
+        <v>11.083299999999999</v>
+      </c>
+      <c r="H132">
+        <v>40.583300000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
+      <c r="A133" t="s">
+        <v>331</v>
+      </c>
+      <c r="B133" t="s">
+        <v>69</v>
+      </c>
+      <c r="C133" t="s">
+        <v>257</v>
+      </c>
+      <c r="D133">
+        <v>2000</v>
+      </c>
+      <c r="E133" t="s">
+        <v>143</v>
+      </c>
+      <c r="G133">
+        <v>51.397500000000001</v>
+      </c>
+      <c r="H133">
+        <v>84.676111000000006</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
+      <c r="A134" t="s">
+        <v>436</v>
+      </c>
+      <c r="B134" t="s">
+        <v>332</v>
+      </c>
+      <c r="C134" t="s">
+        <v>333</v>
+      </c>
+      <c r="D134">
+        <v>2001</v>
+      </c>
+      <c r="E134" t="s">
+        <v>334</v>
+      </c>
+      <c r="F134" t="s">
+        <v>335</v>
+      </c>
+      <c r="G134">
+        <v>17</v>
+      </c>
+      <c r="H134">
+        <v>18</v>
+      </c>
+      <c r="L134" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
+      <c r="A135" t="s">
+        <v>437</v>
+      </c>
+      <c r="B135" t="s">
+        <v>336</v>
+      </c>
+      <c r="C135" t="s">
+        <v>2</v>
+      </c>
+      <c r="D135">
+        <v>2001</v>
+      </c>
+      <c r="E135" t="s">
+        <v>337</v>
+      </c>
+      <c r="F135" t="s">
+        <v>338</v>
+      </c>
+      <c r="G135">
+        <v>41.316667000000002</v>
+      </c>
+      <c r="H135">
+        <v>44.35</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
+      <c r="A136" t="s">
+        <v>339</v>
+      </c>
+      <c r="B136" t="s">
+        <v>340</v>
+      </c>
+      <c r="C136" t="s">
+        <v>2</v>
+      </c>
+      <c r="D136">
+        <v>2002</v>
+      </c>
+      <c r="E136" t="s">
+        <v>341</v>
+      </c>
+      <c r="F136" t="s">
+        <v>342</v>
+      </c>
+      <c r="G136">
+        <v>37.816667000000002</v>
+      </c>
+      <c r="H136">
+        <v>29.316666999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
+      <c r="A137" t="s">
+        <v>343</v>
+      </c>
+      <c r="B137" t="s">
+        <v>344</v>
+      </c>
+      <c r="C137" t="s">
+        <v>27</v>
+      </c>
+      <c r="D137">
+        <v>2002</v>
+      </c>
+      <c r="E137" t="s">
+        <v>84</v>
+      </c>
+      <c r="F137" t="s">
+        <v>345</v>
+      </c>
+      <c r="G137" s="1">
+        <v>32.741300000000003</v>
+      </c>
+      <c r="H137">
+        <v>34.9724</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
+      <c r="A138" t="s">
+        <v>346</v>
+      </c>
+      <c r="B138" t="s">
+        <v>347</v>
+      </c>
+      <c r="C138" t="s">
+        <v>27</v>
+      </c>
+      <c r="D138">
+        <v>2002</v>
+      </c>
+      <c r="E138" t="s">
+        <v>348</v>
+      </c>
+      <c r="G138">
+        <v>45.016666999999998</v>
+      </c>
+      <c r="H138">
+        <v>21.833333</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
+      <c r="A139" t="s">
+        <v>438</v>
+      </c>
+      <c r="B139" t="s">
+        <v>349</v>
+      </c>
+      <c r="C139" t="s">
+        <v>2</v>
+      </c>
+      <c r="D139">
+        <v>2003</v>
+      </c>
+      <c r="E139" t="s">
+        <v>337</v>
+      </c>
+      <c r="F139" t="s">
+        <v>350</v>
+      </c>
+      <c r="G139">
+        <v>41.316667000000002</v>
+      </c>
+      <c r="H139">
+        <v>44.35</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
+      <c r="A140" t="s">
+        <v>439</v>
+      </c>
+      <c r="B140" t="s">
+        <v>351</v>
+      </c>
+      <c r="C140" t="s">
+        <v>32</v>
+      </c>
+      <c r="D140">
+        <v>2003</v>
+      </c>
+      <c r="E140" t="s">
+        <v>118</v>
+      </c>
+      <c r="G140">
+        <v>41.569110999999999</v>
+      </c>
+      <c r="H140">
+        <v>70.133416999999994</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
+      <c r="A141" t="s">
+        <v>352</v>
+      </c>
+      <c r="B141" t="s">
+        <v>353</v>
+      </c>
+      <c r="C141" t="s">
+        <v>354</v>
+      </c>
+      <c r="D141">
+        <v>2003</v>
+      </c>
+      <c r="E141" t="s">
+        <v>355</v>
+      </c>
+      <c r="F141" t="s">
+        <v>356</v>
+      </c>
+      <c r="G141">
+        <v>-8.5341670000000001</v>
+      </c>
+      <c r="H141">
+        <v>120.460278</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
+      <c r="A142" t="s">
+        <v>440</v>
+      </c>
+      <c r="B142">
+        <v>3.58</v>
+      </c>
+      <c r="C142" t="s">
+        <v>213</v>
+      </c>
+      <c r="D142">
+        <v>2005</v>
+      </c>
+      <c r="E142" t="s">
+        <v>189</v>
+      </c>
+      <c r="F142" t="s">
+        <v>291</v>
+      </c>
+      <c r="G142">
+        <v>11.1924920142765</v>
+      </c>
+      <c r="H142">
+        <v>40.634802907236001</v>
+      </c>
+      <c r="I142" s="1"/>
+    </row>
+    <row r="143" spans="1:12">
+      <c r="A143" t="s">
+        <v>357</v>
+      </c>
+      <c r="B143" t="s">
+        <v>358</v>
+      </c>
+      <c r="C143" t="s">
+        <v>399</v>
+      </c>
+      <c r="D143">
+        <v>2006</v>
+      </c>
+      <c r="E143" t="s">
+        <v>189</v>
+      </c>
+      <c r="F143" t="s">
+        <v>359</v>
+      </c>
+      <c r="G143">
+        <v>12.233333</v>
+      </c>
+      <c r="H143">
+        <v>39.233333000000002</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
+      <c r="A144" t="s">
+        <v>441</v>
+      </c>
+      <c r="B144" t="s">
+        <v>360</v>
+      </c>
+      <c r="C144" t="s">
+        <v>361</v>
+      </c>
+      <c r="D144">
+        <v>2008</v>
+      </c>
+      <c r="E144" t="s">
+        <v>362</v>
+      </c>
+      <c r="F144" t="s">
+        <v>363</v>
+      </c>
+      <c r="G144" s="1">
+        <v>-25.895099999999999</v>
+      </c>
+      <c r="H144">
+        <v>27.801300000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
+      <c r="A145" t="s">
+        <v>442</v>
+      </c>
+      <c r="B145">
+        <v>1.2</v>
+      </c>
+      <c r="C145" t="s">
+        <v>364</v>
+      </c>
+      <c r="D145">
+        <v>2008</v>
+      </c>
+      <c r="E145" t="s">
+        <v>280</v>
+      </c>
+      <c r="F145" t="s">
+        <v>365</v>
+      </c>
+      <c r="G145" s="1">
+        <v>42.366667</v>
+      </c>
+      <c r="H145">
+        <v>-3.5222220000000002</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
+      <c r="A146" t="s">
+        <v>366</v>
+      </c>
+      <c r="B146">
+        <v>55</v>
+      </c>
+      <c r="C146" t="s">
+        <v>27</v>
+      </c>
+      <c r="D146">
+        <v>2008</v>
+      </c>
+      <c r="E146" t="s">
+        <v>84</v>
+      </c>
+      <c r="G146" s="1">
+        <v>33.034999999999997</v>
+      </c>
+      <c r="H146">
+        <v>35.193333000000003</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
+      <c r="A147" t="s">
+        <v>443</v>
+      </c>
+      <c r="B147">
+        <v>40</v>
+      </c>
+      <c r="C147" t="s">
+        <v>257</v>
+      </c>
+      <c r="D147">
+        <v>2008</v>
+      </c>
+      <c r="E147" t="s">
+        <v>143</v>
+      </c>
+      <c r="F147" t="s">
+        <v>367</v>
+      </c>
+      <c r="G147">
+        <v>51.397500000000001</v>
+      </c>
+      <c r="H147">
+        <v>84.676111000000006</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
+      <c r="A148" t="s">
+        <v>444</v>
+      </c>
+      <c r="B148" t="s">
+        <v>368</v>
+      </c>
+      <c r="C148" t="s">
+        <v>27</v>
+      </c>
+      <c r="D148">
+        <v>2009</v>
+      </c>
+      <c r="E148" t="s">
+        <v>369</v>
+      </c>
+      <c r="G148" s="1">
+        <v>20.208611000000001</v>
+      </c>
+      <c r="H148">
+        <v>103.409722</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
+      <c r="A149" t="s">
+        <v>370</v>
+      </c>
+      <c r="B149" t="s">
+        <v>371</v>
+      </c>
+      <c r="C149" t="s">
+        <v>257</v>
+      </c>
+      <c r="D149">
+        <v>2010</v>
+      </c>
+      <c r="E149" t="s">
+        <v>143</v>
+      </c>
+      <c r="G149">
+        <v>51.397500000000001</v>
+      </c>
+      <c r="H149">
+        <v>84.676111000000006</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
+      <c r="A150" t="s">
+        <v>372</v>
+      </c>
+      <c r="B150">
+        <v>40</v>
+      </c>
+      <c r="C150" t="s">
+        <v>257</v>
+      </c>
+      <c r="D150">
+        <v>2010</v>
+      </c>
+      <c r="E150" t="s">
+        <v>143</v>
+      </c>
+      <c r="G150">
+        <v>51.397500000000001</v>
+      </c>
+      <c r="H150">
+        <v>84.676111000000006</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
+      <c r="A151" t="s">
+        <v>445</v>
+      </c>
+      <c r="B151" t="s">
+        <v>373</v>
+      </c>
+      <c r="C151" t="s">
+        <v>209</v>
+      </c>
+      <c r="D151">
+        <v>2012</v>
+      </c>
+      <c r="E151" t="s">
+        <v>272</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="G151">
+        <v>3.947778</v>
+      </c>
+      <c r="H151">
+        <v>36.187221999999998</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
+      <c r="A152" t="s">
+        <v>446</v>
+      </c>
+      <c r="B152">
+        <v>90</v>
+      </c>
+      <c r="C152" t="s">
+        <v>257</v>
+      </c>
+      <c r="D152">
+        <v>2012</v>
+      </c>
+      <c r="E152" t="s">
+        <v>374</v>
+      </c>
+      <c r="F152" t="s">
+        <v>375</v>
+      </c>
+      <c r="G152">
+        <v>51.397500000000001</v>
+      </c>
+      <c r="H152">
+        <v>84.676111000000006</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
+      <c r="A153" t="s">
+        <v>376</v>
+      </c>
+      <c r="B153">
+        <v>37</v>
+      </c>
+      <c r="C153" t="s">
+        <v>27</v>
+      </c>
+      <c r="D153">
+        <v>2012</v>
+      </c>
+      <c r="E153" t="s">
+        <v>377</v>
+      </c>
+      <c r="G153" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="H153">
+        <v>80.366667000000007</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
+      <c r="A154" t="s">
+        <v>378</v>
+      </c>
+      <c r="B154" t="s">
+        <v>379</v>
+      </c>
+      <c r="C154" t="s">
+        <v>364</v>
+      </c>
+      <c r="D154">
+        <v>2013</v>
+      </c>
+      <c r="E154" t="s">
+        <v>189</v>
+      </c>
+      <c r="F154" t="s">
+        <v>380</v>
+      </c>
+      <c r="G154" s="1">
+        <v>11.25</v>
+      </c>
+      <c r="H154">
+        <v>40.700000000000003</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
+      <c r="A155" t="s">
+        <v>381</v>
+      </c>
+      <c r="B155" t="s">
+        <v>382</v>
+      </c>
+      <c r="C155" t="s">
+        <v>383</v>
+      </c>
+      <c r="D155">
+        <v>2013</v>
+      </c>
+      <c r="E155" t="s">
+        <v>100</v>
+      </c>
+      <c r="F155" t="s">
+        <v>384</v>
+      </c>
+      <c r="G155">
+        <v>26.020278000000001</v>
+      </c>
+      <c r="H155">
+        <v>24.711943999999999</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12">
+      <c r="A156" t="s">
+        <v>385</v>
+      </c>
+      <c r="B156">
+        <v>0.4</v>
+      </c>
+      <c r="C156" t="s">
+        <v>6</v>
+      </c>
+      <c r="D156">
+        <v>2014</v>
+      </c>
+      <c r="E156" t="s">
+        <v>321</v>
+      </c>
+      <c r="F156" t="s">
+        <v>386</v>
+      </c>
+      <c r="G156" s="1">
+        <v>39.505699999999997</v>
+      </c>
+      <c r="H156">
+        <v>-8.6157000000000004</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12">
+      <c r="A157" t="s">
+        <v>387</v>
+      </c>
+      <c r="B157" t="s">
+        <v>388</v>
+      </c>
+      <c r="C157" t="s">
+        <v>389</v>
+      </c>
+      <c r="D157">
+        <v>2015</v>
+      </c>
+      <c r="E157" t="s">
+        <v>189</v>
+      </c>
+      <c r="F157" t="s">
+        <v>390</v>
+      </c>
+      <c r="G157">
+        <v>11.786362413882699</v>
+      </c>
+      <c r="H157">
+        <v>40.266402265311903</v>
+      </c>
+      <c r="L157" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12">
+      <c r="A158" t="s">
+        <v>447</v>
+      </c>
+      <c r="B158" t="s">
+        <v>391</v>
+      </c>
+      <c r="C158" t="s">
+        <v>2</v>
+      </c>
+      <c r="D158">
+        <v>2015</v>
+      </c>
+      <c r="E158" t="s">
+        <v>392</v>
+      </c>
+      <c r="F158" t="s">
+        <v>393</v>
+      </c>
+      <c r="G158">
+        <v>-25.777550126696699</v>
+      </c>
+      <c r="H158">
+        <v>28.130114904829501</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
+      <c r="A159" t="s">
+        <v>448</v>
+      </c>
+      <c r="B159" t="s">
+        <v>394</v>
+      </c>
+      <c r="C159" t="s">
+        <v>115</v>
+      </c>
+      <c r="D159">
+        <v>2018</v>
+      </c>
+      <c r="E159" t="s">
+        <v>395</v>
+      </c>
+      <c r="F159" t="s">
+        <v>396</v>
+      </c>
+      <c r="G159">
+        <v>-25.777550126696699</v>
+      </c>
+      <c r="H159">
+        <v>28.130114904829501</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12">
+      <c r="A160" t="s">
+        <v>449</v>
+      </c>
+      <c r="B160" t="s">
+        <v>397</v>
+      </c>
+      <c r="C160" t="s">
+        <v>115</v>
+      </c>
+      <c r="D160">
+        <v>2018</v>
+      </c>
+      <c r="E160" t="s">
+        <v>395</v>
+      </c>
+      <c r="F160" t="s">
+        <v>398</v>
+      </c>
+      <c r="G160">
+        <v>-25.777550126696699</v>
+      </c>
+      <c r="H160">
+        <v>28.130114904829501</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12">
+      <c r="A164" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12">
+      <c r="A166" t="s">
+        <v>432</v>
+      </c>
+      <c r="B166">
+        <v>1</v>
+      </c>
+      <c r="C166" t="s">
+        <v>399</v>
+      </c>
+      <c r="D166">
+        <v>1997</v>
+      </c>
+      <c r="E166" t="s">
+        <v>316</v>
+      </c>
+      <c r="F166" t="s">
+        <v>317</v>
+      </c>
+      <c r="L166" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12">
+      <c r="A167" t="s">
+        <v>180</v>
+      </c>
+      <c r="B167" t="s">
+        <v>181</v>
+      </c>
+      <c r="C167" t="s">
+        <v>27</v>
+      </c>
+      <c r="D167">
+        <v>1965</v>
+      </c>
+      <c r="E167" t="s">
+        <v>182</v>
+      </c>
+      <c r="G167" s="1">
+        <v>7.25</v>
+      </c>
+      <c r="H167">
+        <v>5.1950000000000003</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J70" r:id="rId1" location="metadata_info_tab_contents" xr:uid="{112ED1FF-589B-4CAF-B372-290CE99987C6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>